--- a/Level/Level模版.xlsx
+++ b/Level/Level模版.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Uneal Project\ProjectTD\Level\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Unreal Project\ProjectTD\Level\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7095" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7095"/>
   </bookViews>
   <sheets>
-    <sheet name="l1" sheetId="3" r:id="rId1"/>
-    <sheet name="l1t" sheetId="5" r:id="rId2"/>
-    <sheet name="Sheet1 (3)" sheetId="4" r:id="rId3"/>
+    <sheet name="test" sheetId="6" r:id="rId1"/>
+    <sheet name="l1" sheetId="3" r:id="rId2"/>
+    <sheet name="l1t" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet1 (3)" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="13">
   <si>
     <t>r</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,6 +50,34 @@
   </si>
   <si>
     <t>p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -106,11 +135,11 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="11">
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B050"/>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -138,7 +167,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -174,6 +203,13 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -453,6 +489,317 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="10" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1">
+        <v>0</v>
+      </c>
+      <c r="I1" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A1:XFD1048576">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+      <formula>"p"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="2" operator="containsText" text="s">
+      <formula>NOT(ISERROR(SEARCH("s",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="3" operator="containsText" text="r">
+      <formula>NOT(ISERROR(SEARCH("r",A1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
@@ -725,11 +1072,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
@@ -986,10 +1333,10 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="s">
+    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="s">
       <formula>NOT(ISERROR(SEARCH("s",A1)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="r">
@@ -1001,7 +1348,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K7"/>
   <sheetViews>
@@ -1262,10 +1609,10 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="s">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="s">
       <formula>NOT(ISERROR(SEARCH("s",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="r">
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="r">
       <formula>NOT(ISERROR(SEARCH("r",A1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Level/Level模版.xlsx
+++ b/Level/Level模版.xlsx
@@ -12,10 +12,11 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7095"/>
   </bookViews>
   <sheets>
-    <sheet name="test" sheetId="6" r:id="rId1"/>
-    <sheet name="l1" sheetId="3" r:id="rId2"/>
-    <sheet name="l1t" sheetId="5" r:id="rId3"/>
-    <sheet name="Sheet1 (3)" sheetId="4" r:id="rId4"/>
+    <sheet name="Main" sheetId="7" r:id="rId1"/>
+    <sheet name="test" sheetId="6" r:id="rId2"/>
+    <sheet name="l1" sheetId="3" r:id="rId3"/>
+    <sheet name="l1t" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet1 (3)" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="18">
   <si>
     <t>r</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,6 +63,26 @@
   </si>
   <si>
     <t>r</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -124,18 +145,42 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="14">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -492,7 +537,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -519,19 +564,19 @@
       <c r="F1" s="1">
         <v>0</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="1">
-        <v>0</v>
-      </c>
-      <c r="I1" s="1">
-        <v>0</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1">
+      <c r="G1" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1" s="2">
+        <v>0</v>
+      </c>
+      <c r="I1" s="2">
+        <v>0</v>
+      </c>
+      <c r="J1" s="2">
+        <v>0</v>
+      </c>
+      <c r="K1" s="2">
         <v>0</v>
       </c>
     </row>
@@ -540,31 +585,31 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G2" s="1">
         <v>0</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0</v>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
@@ -572,10 +617,10 @@
     </row>
     <row r="3" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -587,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
@@ -595,11 +640,11 @@
       <c r="H3" s="1">
         <v>0</v>
       </c>
-      <c r="I3" s="1">
-        <v>0</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0</v>
+      <c r="I3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="K3" s="1">
         <v>0</v>
@@ -613,16 +658,16 @@
         <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
@@ -659,8 +704,8 @@
       <c r="F5" s="1">
         <v>0</v>
       </c>
-      <c r="G5" s="1">
-        <v>0</v>
+      <c r="G5" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="H5" s="1">
         <v>0</v>
@@ -668,8 +713,8 @@
       <c r="I5" s="1">
         <v>0</v>
       </c>
-      <c r="J5" s="1">
-        <v>0</v>
+      <c r="J5" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="K5" s="1">
         <v>0</v>
@@ -683,25 +728,25 @@
         <v>0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
         <v>0</v>
@@ -712,22 +757,22 @@
     </row>
     <row r="7" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
       </c>
       <c r="G7" s="1">
         <v>0</v>
@@ -736,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
         <v>0</v>
@@ -749,8 +794,8 @@
       <c r="A8" s="1">
         <v>0</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>12</v>
+      <c r="B8" s="1">
+        <v>0</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
@@ -758,20 +803,20 @@
       <c r="D8" s="1">
         <v>0</v>
       </c>
-      <c r="E8" s="1">
-        <v>0</v>
+      <c r="E8" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>12</v>
+      <c r="G8" s="1">
+        <v>0</v>
       </c>
       <c r="H8" s="1">
         <v>0</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
         <v>0</v>
@@ -783,13 +828,13 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="2" operator="containsText" text="s">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="s">
       <formula>NOT(ISERROR(SEARCH("s",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="3" operator="containsText" text="r">
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="r">
       <formula>NOT(ISERROR(SEARCH("r",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -799,6 +844,317 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K8"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="10" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1">
+        <v>0</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A1:XFD1048576">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
+      <formula>"p"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="2" operator="containsText" text="s">
+      <formula>NOT(ISERROR(SEARCH("s",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="r">
+      <formula>NOT(ISERROR(SEARCH("r",A1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K7"/>
   <sheetViews>
@@ -1057,13 +1413,13 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="r">
+    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="r">
       <formula>NOT(ISERROR(SEARCH("r",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="s">
+    <cfRule type="containsText" dxfId="9" priority="2" operator="containsText" text="s">
       <formula>NOT(ISERROR(SEARCH("s",A1)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
       <formula>"p"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1072,7 +1428,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K7"/>
   <sheetViews>
@@ -1333,13 +1689,13 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="s">
+    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="s">
       <formula>NOT(ISERROR(SEARCH("s",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="r">
+    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="r">
       <formula>NOT(ISERROR(SEARCH("r",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1348,7 +1704,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K7"/>
   <sheetViews>
@@ -1609,10 +1965,10 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="s">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="s">
       <formula>NOT(ISERROR(SEARCH("s",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="r">
+    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="r">
       <formula>NOT(ISERROR(SEARCH("r",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
